--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_21_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_21_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1139997.237056462</v>
+        <v>1225279.298521008</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673262</v>
+        <v>4171427.157673263</v>
       </c>
     </row>
     <row r="9">
@@ -671,10 +673,10 @@
         <v>187.5255871663199</v>
       </c>
       <c r="G2" t="n">
-        <v>28.33592091243833</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>28.33592091243833</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>28.72126385438686</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>48.77881175550657</v>
@@ -789,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>161.8367009204425</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,19 +867,19 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="V4" t="n">
-        <v>5.573327086027478</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>131.9170773067623</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>309.8721809286224</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>309.5726801605425</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>411.9846159221721</v>
       </c>
       <c r="H5" t="n">
-        <v>305.4930893518355</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>82.55400685770235</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.4083737866025</v>
       </c>
       <c r="T5" t="n">
-        <v>208.5707722909361</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0802031803995</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.568165595806</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>95.08928567761473</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>28.2715898508603</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>138.7067944022646</v>
+        <v>138.7067944022647</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.0088160174318</v>
       </c>
       <c r="U6" t="n">
-        <v>152.0723267603018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>157.6024379829832</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1057,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5025842422711</v>
       </c>
       <c r="H7" t="n">
-        <v>148.9939868380619</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>110.690374524087</v>
+        <v>110.6903745240871</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>110.3697346074945</v>
+        <v>110.3697346074946</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>198.0779304212289</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>193.0777305967066</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>16.06349812322748</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1151,7 +1153,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>59.96790981976753</v>
       </c>
       <c r="U8" t="n">
-        <v>183.4201252185612</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>126.9043333797237</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>137.7336954102809</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>242.8528437613037</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>274.794425514577</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>111.9187566128687</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>101.6599086699121</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1658,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>227.7172236952946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1777,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>82.70057996958639</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1825,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>150.2062474346973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>78.78083674902027</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>331.4712643921165</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1904,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>139.8285741207142</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2019,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>18.09472394000608</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>78.78083674902116</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>75.4571321610379</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2141,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2242,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>6.38006817584838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>71.67037196991771</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2318,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>66.90993488442014</v>
       </c>
       <c r="G23" t="n">
-        <v>120.608807415962</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,16 +2371,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>114.2656173771023</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>13.42874471570741</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>179.9948012226684</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>361.5887724808707</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>157.782207034717</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>82.44197461223447</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>194.1708171770731</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>57.92518451681224</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>52.23490948285976</v>
+        <v>169.644780075416</v>
       </c>
     </row>
     <row r="32">
@@ -3032,19 +3034,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>194.3606546765282</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3080,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>51.47785630779824</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492396</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3244,7 +3246,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>8.694243865611819</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3275,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>284.4297735342296</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>57.92518451681224</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>114.2656173771023</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.71145624902186</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>283.9746808062648</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>87.83762944231115</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3740,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>74.5568185402492</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>57.21379282842719</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3901,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>6.38006817584838</v>
+        <v>6.380068175847845</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3983,16 +3985,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.1127822067375</v>
+        <v>235.9375844494528</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4153,7 +4155,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>142.3844270995955</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>120.4263234899701</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549.202463503662</v>
+        <v>520.5803211678657</v>
       </c>
       <c r="C2" t="n">
-        <v>549.202463503662</v>
+        <v>520.5803211678657</v>
       </c>
       <c r="D2" t="n">
-        <v>549.202463503662</v>
+        <v>520.5803211678657</v>
       </c>
       <c r="E2" t="n">
-        <v>549.202463503662</v>
+        <v>520.5803211678657</v>
       </c>
       <c r="F2" t="n">
-        <v>359.7826784871772</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513809</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
         <v>141.7407511348962</v>
@@ -4328,7 +4330,7 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
         <v>80.81213159058939</v>
@@ -4337,13 +4339,13 @@
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985581</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
         <v>734.4611726020263</v>
@@ -4370,10 +4372,10 @@
         <v>549.202463503662</v>
       </c>
       <c r="X2" t="n">
-        <v>549.202463503662</v>
+        <v>520.5803211678657</v>
       </c>
       <c r="Y2" t="n">
-        <v>549.202463503662</v>
+        <v>520.5803211678657</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>344.079722251358</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="C3" t="n">
-        <v>344.079722251358</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="D3" t="n">
-        <v>195.1453125901068</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="E3" t="n">
-        <v>195.1453125901068</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="F3" t="n">
-        <v>195.1453125901068</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="G3" t="n">
-        <v>166.133934959413</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H3" t="n">
         <v>64.27357399906981</v>
@@ -4437,22 +4439,22 @@
         <v>722.9192922843275</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843275</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843275</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843275</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="W3" t="n">
         <v>533.4995072678428</v>
       </c>
       <c r="X3" t="n">
-        <v>344.079722251358</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="Y3" t="n">
-        <v>344.079722251358</v>
+        <v>370.0280921966887</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.67250990818523</v>
+        <v>289.8921302232408</v>
       </c>
       <c r="C4" t="n">
-        <v>38.67250990818523</v>
+        <v>289.8921302232408</v>
       </c>
       <c r="D4" t="n">
-        <v>38.67250990818523</v>
+        <v>289.8921302232408</v>
       </c>
       <c r="E4" t="n">
-        <v>38.67250990818523</v>
+        <v>141.9790366408477</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818523</v>
+        <v>141.9790366408477</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818523</v>
+        <v>141.9790366408477</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818523</v>
+        <v>141.9790366408477</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>43.1759045242809</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>216.063482639416</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692151</v>
+        <v>401.7138139340726</v>
       </c>
       <c r="N4" t="n">
-        <v>650.9033495638718</v>
+        <v>587.3641452287293</v>
       </c>
       <c r="O4" t="n">
-        <v>652.2303032981982</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="P4" t="n">
         <v>750.1023486652795</v>
@@ -4513,25 +4515,25 @@
         <v>612.5614882768591</v>
       </c>
       <c r="S4" t="n">
+        <v>612.5614882768591</v>
+      </c>
+      <c r="T4" t="n">
+        <v>612.5614882768591</v>
+      </c>
+      <c r="U4" t="n">
         <v>423.1417032603744</v>
       </c>
-      <c r="T4" t="n">
-        <v>233.7219182438896</v>
-      </c>
-      <c r="U4" t="n">
-        <v>44.30213322740491</v>
-      </c>
       <c r="V4" t="n">
-        <v>38.67250990818523</v>
+        <v>423.1417032603744</v>
       </c>
       <c r="W4" t="n">
-        <v>38.67250990818523</v>
+        <v>289.8921302232408</v>
       </c>
       <c r="X4" t="n">
-        <v>38.67250990818523</v>
+        <v>289.8921302232408</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.67250990818523</v>
+        <v>289.8921302232408</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1572.535000560081</v>
+        <v>1180.870762740426</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.535000560081</v>
+        <v>867.8685597822221</v>
       </c>
       <c r="D5" t="n">
-        <v>1572.535000560081</v>
+        <v>867.8685597822221</v>
       </c>
       <c r="E5" t="n">
-        <v>1259.83532363024</v>
+        <v>867.8685597822221</v>
       </c>
       <c r="F5" t="n">
-        <v>848.8494188406327</v>
+        <v>456.8826549926145</v>
       </c>
       <c r="G5" t="n">
-        <v>432.7033421515699</v>
+        <v>40.73657830355178</v>
       </c>
       <c r="H5" t="n">
-        <v>124.1244640184027</v>
+        <v>40.73657830355178</v>
       </c>
       <c r="I5" t="n">
-        <v>40.73657830355184</v>
+        <v>40.73657830355178</v>
       </c>
       <c r="J5" t="n">
-        <v>140.3063411473629</v>
+        <v>140.3063411473624</v>
       </c>
       <c r="K5" t="n">
-        <v>340.2741230978825</v>
+        <v>340.2741230978817</v>
       </c>
       <c r="L5" t="n">
-        <v>625.2536008262784</v>
+        <v>625.2536008262773</v>
       </c>
       <c r="M5" t="n">
-        <v>974.0176169100275</v>
+        <v>974.0176169100262</v>
       </c>
       <c r="N5" t="n">
-        <v>1333.038807774398</v>
+        <v>1333.038807774396</v>
       </c>
       <c r="O5" t="n">
-        <v>1658.717076417798</v>
+        <v>1658.717076417796</v>
       </c>
       <c r="P5" t="n">
-        <v>1902.174943012942</v>
+        <v>1902.174943012939</v>
       </c>
       <c r="Q5" t="n">
-        <v>2036.828915177592</v>
+        <v>2036.828915177589</v>
       </c>
       <c r="R5" t="n">
-        <v>2036.828915177592</v>
+        <v>2036.828915177589</v>
       </c>
       <c r="S5" t="n">
-        <v>2036.828915177592</v>
+        <v>1902.072982059809</v>
       </c>
       <c r="T5" t="n">
-        <v>1826.15136740897</v>
+        <v>1902.072982059809</v>
       </c>
       <c r="U5" t="n">
-        <v>1572.535000560081</v>
+        <v>1902.072982059809</v>
       </c>
       <c r="V5" t="n">
-        <v>1572.535000560081</v>
+        <v>1571.010094716238</v>
       </c>
       <c r="W5" t="n">
-        <v>1572.535000560081</v>
+        <v>1571.010094716238</v>
       </c>
       <c r="X5" t="n">
-        <v>1572.535000560081</v>
+        <v>1571.010094716238</v>
       </c>
       <c r="Y5" t="n">
-        <v>1572.535000560081</v>
+        <v>1180.870762740426</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>669.8960302245007</v>
+        <v>931.4405162086229</v>
       </c>
       <c r="C6" t="n">
-        <v>495.4430009433736</v>
+        <v>756.9874869274959</v>
       </c>
       <c r="D6" t="n">
-        <v>346.5085912821224</v>
+        <v>608.0530772662446</v>
       </c>
       <c r="E6" t="n">
-        <v>187.2711362766669</v>
+        <v>448.815622260789</v>
       </c>
       <c r="F6" t="n">
-        <v>40.73657830355184</v>
+        <v>302.281064287674</v>
       </c>
       <c r="G6" t="n">
-        <v>40.73657830355184</v>
+        <v>165.3435232818094</v>
       </c>
       <c r="H6" t="n">
-        <v>40.73657830355184</v>
+        <v>69.29373976906724</v>
       </c>
       <c r="I6" t="n">
-        <v>40.73657830355184</v>
+        <v>40.73657830355178</v>
       </c>
       <c r="J6" t="n">
-        <v>81.22179997516992</v>
+        <v>206.0519249621744</v>
       </c>
       <c r="K6" t="n">
-        <v>490.3929015705758</v>
+        <v>353.4024419151273</v>
       </c>
       <c r="L6" t="n">
-        <v>734.8463969521999</v>
+        <v>597.8559372967511</v>
       </c>
       <c r="M6" t="n">
-        <v>1039.468964108336</v>
+        <v>902.4785044528865</v>
       </c>
       <c r="N6" t="n">
-        <v>1366.562629100103</v>
+        <v>1229.572169444654</v>
       </c>
       <c r="O6" t="n">
-        <v>1643.569634434446</v>
+        <v>1506.579174778996</v>
       </c>
       <c r="P6" t="n">
-        <v>1941.086023308143</v>
+        <v>1733.109508449649</v>
       </c>
       <c r="Q6" t="n">
-        <v>2026.859916513716</v>
+        <v>2026.859916513713</v>
       </c>
       <c r="R6" t="n">
-        <v>2036.828915177592</v>
+        <v>2036.828915177589</v>
       </c>
       <c r="S6" t="n">
-        <v>1896.721042043991</v>
+        <v>1896.721042043989</v>
       </c>
       <c r="T6" t="n">
-        <v>1896.721042043991</v>
+        <v>1701.76264202638</v>
       </c>
       <c r="U6" t="n">
-        <v>1743.112631175</v>
+        <v>1701.76264202638</v>
       </c>
       <c r="V6" t="n">
-        <v>1507.960522943257</v>
+        <v>1466.610533794638</v>
       </c>
       <c r="W6" t="n">
-        <v>1253.723166215055</v>
+        <v>1466.610533794638</v>
       </c>
       <c r="X6" t="n">
-        <v>1045.871666009523</v>
+        <v>1307.416151993645</v>
       </c>
       <c r="Y6" t="n">
-        <v>838.1113672445688</v>
+        <v>1099.655853228691</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1085.084305970987</v>
+        <v>637.5787424566378</v>
       </c>
       <c r="C7" t="n">
-        <v>916.14812304308</v>
+        <v>468.6425595287309</v>
       </c>
       <c r="D7" t="n">
-        <v>766.0314836307442</v>
+        <v>468.6425595287309</v>
       </c>
       <c r="E7" t="n">
-        <v>618.1183900483511</v>
+        <v>320.7294659463378</v>
       </c>
       <c r="F7" t="n">
-        <v>471.2284425504407</v>
+        <v>320.7294659463378</v>
       </c>
       <c r="G7" t="n">
-        <v>303.0440140228942</v>
+        <v>152.5450374187913</v>
       </c>
       <c r="H7" t="n">
         <v>152.5450374187913</v>
       </c>
       <c r="I7" t="n">
-        <v>40.73657830355184</v>
+        <v>40.73657830355178</v>
       </c>
       <c r="J7" t="n">
-        <v>52.48822935536987</v>
+        <v>52.4882293553697</v>
       </c>
       <c r="K7" t="n">
-        <v>201.6366387116524</v>
+        <v>201.6366387116521</v>
       </c>
       <c r="L7" t="n">
-        <v>448.0216872905648</v>
+        <v>448.0216872905643</v>
       </c>
       <c r="M7" t="n">
-        <v>718.189298378604</v>
+        <v>718.1892983786033</v>
       </c>
       <c r="N7" t="n">
-        <v>987.3675439511248</v>
+        <v>987.367543951124</v>
       </c>
       <c r="O7" t="n">
-        <v>1219.980925984398</v>
+        <v>1219.980925984397</v>
       </c>
       <c r="P7" t="n">
-        <v>1395.50117728849</v>
+        <v>1395.501177288489</v>
       </c>
       <c r="Q7" t="n">
-        <v>1433.587221206155</v>
+        <v>1433.587221206154</v>
       </c>
       <c r="R7" t="n">
-        <v>1322.102640794545</v>
+        <v>1322.102640794543</v>
       </c>
       <c r="S7" t="n">
-        <v>1322.102640794545</v>
+        <v>1122.023923197342</v>
       </c>
       <c r="T7" t="n">
-        <v>1322.102640794545</v>
+        <v>1122.023923197342</v>
       </c>
       <c r="U7" t="n">
-        <v>1322.102640794545</v>
+        <v>926.9959124935983</v>
       </c>
       <c r="V7" t="n">
-        <v>1322.102640794545</v>
+        <v>926.9959124935983</v>
       </c>
       <c r="W7" t="n">
-        <v>1322.102640794545</v>
+        <v>637.5787424566378</v>
       </c>
       <c r="X7" t="n">
-        <v>1305.876885114517</v>
+        <v>637.5787424566378</v>
       </c>
       <c r="Y7" t="n">
-        <v>1085.084305970987</v>
+        <v>637.5787424566378</v>
       </c>
     </row>
     <row r="8">
@@ -4793,31 +4795,31 @@
         <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345445</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
         <v>2360.886721764998</v>
@@ -4829,10 +4831,10 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2377.066474644033</v>
       </c>
       <c r="U8" t="n">
         <v>2377.066474644033</v>
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>614.5430248380233</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>909.2465818694951</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568937</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.189556406156</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>348.2533734782492</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1367340659135</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1209.047770416887</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1209.047770416887</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W10" t="n">
-        <v>919.6306003799259</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="X10" t="n">
-        <v>919.6306003799259</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.8380212363958</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1448.172675760995</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>1062.384423162751</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>651.3985183731431</v>
       </c>
       <c r="G11" t="n">
         <v>406.0926155839475</v>
@@ -5039,7 +5041,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5048,7 +5050,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5066,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X11" t="n">
-        <v>3009.337405520488</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="F13" t="n">
         <v>477.7578170212613</v>
@@ -5221,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>590.8070661251691</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>894.5676446164464</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>508.7793920182021</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>508.7793920182021</v>
       </c>
       <c r="G14" t="n">
         <v>406.0926155839475</v>
@@ -5276,19 +5278,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5306,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W14" t="n">
-        <v>2961.784676410102</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X14" t="n">
-        <v>2961.784676410102</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G16" t="n">
         <v>310.0549803959803</v>
@@ -5458,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W16" t="n">
-        <v>1645.778206672847</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1145.385526619114</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>787.1198280123635</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>401.3315754141193</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>401.3315754141193</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
@@ -5522,7 +5524,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5543,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W17" t="n">
-        <v>2424.744041450753</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X17" t="n">
-        <v>2424.744041450753</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y17" t="n">
-        <v>2424.744041450753</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>815.7608990065712</v>
+        <v>913.8018420618822</v>
       </c>
       <c r="C19" t="n">
-        <v>646.8247160786643</v>
+        <v>913.8018420618822</v>
       </c>
       <c r="D19" t="n">
-        <v>496.7080766663286</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E19" t="n">
-        <v>496.7080766663286</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F19" t="n">
-        <v>349.8181291684182</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
-        <v>182.1152925431371</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
         <v>163.8377936138381</v>
@@ -5695,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V19" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W19" t="n">
-        <v>1446.191493878358</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X19" t="n">
-        <v>1218.201942980341</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="Y19" t="n">
-        <v>997.4093638368109</v>
+        <v>913.8018420618822</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1308.370295943748</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C20" t="n">
-        <v>1308.370295943748</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D20" t="n">
-        <v>1308.370295943748</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
         <v>1232.150970528558</v>
@@ -5750,22 +5752,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5789,13 +5791,13 @@
         <v>2424.744041450754</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.97538618064</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.50962791956</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943748</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D21" t="n">
         <v>618.1564155387305</v>
@@ -5817,25 +5819,25 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,16 +5849,16 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1640.204086189707</v>
+        <v>2151.073568494537</v>
       </c>
       <c r="C22" t="n">
-        <v>1471.2679032618</v>
+        <v>1982.13738556663</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.823389952862</v>
+        <v>1832.020746154295</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.823389952862</v>
+        <v>1684.107652571901</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952862</v>
+        <v>1537.217705073991</v>
       </c>
       <c r="G22" t="n">
         <v>1464.823389952862</v>
@@ -5938,22 +5940,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T22" t="n">
-        <v>3103.839206178698</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U22" t="n">
-        <v>2814.736339304341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V22" t="n">
-        <v>2560.051851098454</v>
+        <v>3070.921333403285</v>
       </c>
       <c r="W22" t="n">
-        <v>2270.634681061494</v>
+        <v>2781.504163366324</v>
       </c>
       <c r="X22" t="n">
-        <v>2042.645130163476</v>
+        <v>2553.514612468307</v>
       </c>
       <c r="Y22" t="n">
-        <v>1821.852551019946</v>
+        <v>2332.722033324777</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1712.341567565139</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C23" t="n">
-        <v>1343.379050624727</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="D23" t="n">
-        <v>985.1133520179767</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="E23" t="n">
-        <v>599.3250994197324</v>
+        <v>888.7508585514965</v>
       </c>
       <c r="F23" t="n">
-        <v>188.3391946301248</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052369</v>
@@ -6017,22 +6019,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V23" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W23" t="n">
-        <v>2862.546497866152</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.080739605072</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y23" t="n">
-        <v>2098.941407629261</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="24">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.613680441807</v>
+        <v>2489.924953962486</v>
       </c>
       <c r="C25" t="n">
-        <v>922.6774975139006</v>
+        <v>2320.988771034579</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S25" t="n">
-        <v>1735.608663915319</v>
+        <v>3120.355548834273</v>
       </c>
       <c r="T25" t="n">
-        <v>1735.608663915319</v>
+        <v>3120.355548834273</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.608663915319</v>
+        <v>3120.355548834273</v>
       </c>
       <c r="V25" t="n">
-        <v>1735.608663915319</v>
+        <v>3120.355548834273</v>
       </c>
       <c r="W25" t="n">
-        <v>1722.044275313594</v>
+        <v>3120.355548834273</v>
       </c>
       <c r="X25" t="n">
-        <v>1494.054724415577</v>
+        <v>2892.365997936256</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.262145272047</v>
+        <v>2671.573418792726</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2158.017852261501</v>
+        <v>2295.336172843073</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>1926.373655902662</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>1568.107957295911</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>1182.319704697667</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>771.3337999080593</v>
       </c>
       <c r="G26" t="n">
         <v>406.0926155839475</v>
@@ -6236,10 +6238,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
         <v>3018.302393296686</v>
@@ -6251,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V26" t="n">
-        <v>2884.252265792695</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W26" t="n">
-        <v>2531.483610522581</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="X26" t="n">
-        <v>2158.017852261501</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="Y26" t="n">
-        <v>2158.017852261501</v>
+        <v>2681.936012907195</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064537</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J27" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2246.382089998689</v>
+        <v>1905.843617815307</v>
       </c>
       <c r="C28" t="n">
-        <v>2077.445907070782</v>
+        <v>1905.843617815307</v>
       </c>
       <c r="D28" t="n">
-        <v>1927.329267658446</v>
+        <v>1905.843617815307</v>
       </c>
       <c r="E28" t="n">
-        <v>1779.416174076053</v>
+        <v>1757.930524232914</v>
       </c>
       <c r="F28" t="n">
-        <v>1632.526226578143</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.823389952862</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J28" t="n">
         <v>1509.946022399797</v>
@@ -6388,16 +6390,16 @@
         <v>1713.933205348673</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.49300379717</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396719</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N28" t="n">
         <v>2716.058426102583</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022997</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P28" t="n">
         <v>3247.995525456656</v>
@@ -6406,28 +6408,28 @@
         <v>3325.605821609171</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.605821609171</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.605821609171</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.605821609171</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.605821609171</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V28" t="n">
-        <v>3166.229854907437</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W28" t="n">
-        <v>2876.812684870476</v>
+        <v>1989.118339645847</v>
       </c>
       <c r="X28" t="n">
-        <v>2648.823133972458</v>
+        <v>1905.843617815307</v>
       </c>
       <c r="Y28" t="n">
-        <v>2428.030554828928</v>
+        <v>1905.843617815307</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1179.52858457759</v>
+        <v>2201.719078084901</v>
       </c>
       <c r="C29" t="n">
-        <v>810.5660676371781</v>
+        <v>1832.756561144489</v>
       </c>
       <c r="D29" t="n">
-        <v>452.3003690304276</v>
+        <v>1474.490862537739</v>
       </c>
       <c r="E29" t="n">
-        <v>66.51211643218343</v>
+        <v>1088.702609939495</v>
       </c>
       <c r="F29" t="n">
-        <v>66.51211643218343</v>
+        <v>677.716705149887</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>262.6442549948835</v>
       </c>
       <c r="H29" t="n">
         <v>66.51211643218343</v>
@@ -6461,25 +6463,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052369</v>
@@ -6488,25 +6490,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3267.095534218452</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>3013.565057492288</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V29" t="n">
-        <v>2682.502170148718</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W29" t="n">
-        <v>2329.733514878603</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X29" t="n">
-        <v>1956.267756617523</v>
+        <v>2588.318918149023</v>
       </c>
       <c r="Y29" t="n">
-        <v>1566.128424641711</v>
+        <v>2588.318918149023</v>
       </c>
     </row>
     <row r="30">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1708.366253916659</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C31" t="n">
-        <v>1708.366253916659</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D31" t="n">
-        <v>1708.366253916659</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E31" t="n">
-        <v>1708.366253916659</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F31" t="n">
-        <v>1708.366253916659</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G31" t="n">
-        <v>1708.366253916659</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H31" t="n">
-        <v>1562.149067134517</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>3044.089480193526</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>2822.322864763052</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U31" t="n">
-        <v>2533.219997888695</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V31" t="n">
-        <v>2278.535509682808</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W31" t="n">
-        <v>1989.118339645848</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="X31" t="n">
-        <v>1761.12878874783</v>
+        <v>1444.620508984588</v>
       </c>
       <c r="Y31" t="n">
-        <v>1708.366253916659</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1186.041037313967</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="C32" t="n">
-        <v>817.078520373555</v>
+        <v>663.0986074121199</v>
       </c>
       <c r="D32" t="n">
-        <v>817.078520373555</v>
+        <v>304.8329088053694</v>
       </c>
       <c r="E32" t="n">
-        <v>817.078520373555</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K32" t="n">
         <v>589.2106210810553</v>
@@ -6707,19 +6709,19 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
@@ -6728,22 +6730,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3273.607986954829</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U32" t="n">
-        <v>3020.077510228665</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V32" t="n">
-        <v>2689.014622885094</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W32" t="n">
-        <v>2336.24596761498</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X32" t="n">
-        <v>1962.7802093539</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y32" t="n">
-        <v>1572.640877378088</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1464.823389952861</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="C34" t="n">
-        <v>1464.823389952861</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="D34" t="n">
-        <v>1464.823389952861</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="E34" t="n">
-        <v>1464.823389952861</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.823389952861</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.823389952861</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.823389952861</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399797</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102583</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456656</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q34" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366698</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193525</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="T34" t="n">
-        <v>2822.322864763051</v>
+        <v>2912.153322005524</v>
       </c>
       <c r="U34" t="n">
-        <v>2533.219997888694</v>
+        <v>2623.050455131167</v>
       </c>
       <c r="V34" t="n">
-        <v>2278.535509682808</v>
+        <v>2614.268390620448</v>
       </c>
       <c r="W34" t="n">
-        <v>1989.118339645847</v>
+        <v>2324.851220583488</v>
       </c>
       <c r="X34" t="n">
-        <v>1761.12878874783</v>
+        <v>2096.86166968547</v>
       </c>
       <c r="Y34" t="n">
-        <v>1540.336209604299</v>
+        <v>1876.06909054194</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2175.400891308157</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C35" t="n">
-        <v>1806.438374367745</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D35" t="n">
-        <v>1448.172675760995</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.384423162751</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F35" t="n">
-        <v>651.3985183731431</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6965,22 +6967,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3267.095534218452</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W35" t="n">
-        <v>3325.605821609171</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X35" t="n">
-        <v>2952.140063348091</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y35" t="n">
-        <v>2562.000731372279</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="36">
@@ -7005,22 +7007,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>680.3679798527295</v>
+        <v>2489.924953962486</v>
       </c>
       <c r="C37" t="n">
-        <v>511.4317969248226</v>
+        <v>2320.988771034579</v>
       </c>
       <c r="D37" t="n">
-        <v>361.3151575124869</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218342</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O37" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="U37" t="n">
-        <v>1854.900232967364</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="V37" t="n">
-        <v>1600.215744761477</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="W37" t="n">
-        <v>1310.798574724517</v>
+        <v>3120.355548834273</v>
       </c>
       <c r="X37" t="n">
-        <v>1082.809023826499</v>
+        <v>2892.365997936256</v>
       </c>
       <c r="Y37" t="n">
-        <v>862.0164446829692</v>
+        <v>2671.573418792726</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1278.358723975039</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C38" t="n">
-        <v>1278.358723975039</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>764.341133147311</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>353.3552283577034</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.50962791956</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943748</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="39">
@@ -7242,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7354,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.464090846021</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T40" t="n">
-        <v>1837.464090846021</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U40" t="n">
-        <v>1837.464090846021</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V40" t="n">
-        <v>1582.779602640134</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.779602640134</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.054724415577</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.7704558796261</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C41" t="n">
-        <v>552.8079389392144</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D41" t="n">
-        <v>552.8079389392144</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E41" t="n">
-        <v>552.8079389392144</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F41" t="n">
-        <v>141.8220341496068</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>3061.836364065689</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450754</v>
+        <v>2730.773476722119</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180639</v>
+        <v>2378.004821452004</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.50962791956</v>
+        <v>2004.539063190924</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943748</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="42">
@@ -7479,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1640.204086189706</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C43" t="n">
-        <v>1471.267903261799</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="D43" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E43" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>3103.839206178697</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>2814.736339304341</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>2560.051851098454</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W43" t="n">
-        <v>2270.634681061493</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X43" t="n">
-        <v>2042.645130163476</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y43" t="n">
-        <v>1821.852551019946</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2212.771568013855</v>
+        <v>1032.06112435253</v>
       </c>
       <c r="C44" t="n">
-        <v>1843.809051073443</v>
+        <v>663.0986074121186</v>
       </c>
       <c r="D44" t="n">
-        <v>1485.543352466693</v>
+        <v>304.832908805368</v>
       </c>
       <c r="E44" t="n">
-        <v>1099.755099868448</v>
+        <v>304.832908805368</v>
       </c>
       <c r="F44" t="n">
-        <v>688.769195078841</v>
+        <v>304.832908805368</v>
       </c>
       <c r="G44" t="n">
-        <v>273.6967449238375</v>
+        <v>304.832908805368</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W44" t="n">
-        <v>2972.837166339057</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X44" t="n">
-        <v>2599.371408077977</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y44" t="n">
-        <v>2599.371408077977</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="45">
@@ -7716,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1091.613680441807</v>
+        <v>2489.924953962484</v>
       </c>
       <c r="C46" t="n">
-        <v>922.6774975139006</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="D46" t="n">
-        <v>772.5608581015648</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6477645191717</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088493</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="U46" t="n">
-        <v>1927.294548088493</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="V46" t="n">
-        <v>1783.471894452538</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="W46" t="n">
-        <v>1494.054724415577</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="X46" t="n">
-        <v>1494.054724415577</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="Y46" t="n">
-        <v>1273.262145272047</v>
+        <v>2671.573418792724</v>
       </c>
     </row>
   </sheetData>
@@ -8137,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>42.56275186471065</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8149,10 +8151,10 @@
         <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>116.9682609530345</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>7.153582300174151</v>
+        <v>7.153582300174321</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>95.4817292597844</v>
+        <v>23.77864319610447</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>240.4465442417442</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>168.0688818921498</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>111.4435131414766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>33.50229141006257</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>309.2618169835413</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>158.520714960759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -23713,10 +23715,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>75.50340795433985</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>303.9530049144603</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23741,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>79.45046126133695</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23792,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>8.786898897498133</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>126.6602909743147</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>303.9530049144594</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>306.4732379112239</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24029,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24130,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>142.235404842364</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911051</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24178,10 +24180,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24206,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>339.9661108572913</v>
       </c>
       <c r="G23" t="n">
-        <v>290.3129182374915</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,16 +24259,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>75.50340795433958</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>273.0942536208836</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>185.2780905483392</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24455,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>49.33295317258279</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>94.35543628911103</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.2676807768027</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24689,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>100.4369472102474</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24728,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>145.9927856228079</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>166.349743869235</v>
+        <v>48.93987327667881</v>
       </c>
     </row>
     <row r="32">
@@ -24920,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>187.5697153957336</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24968,7 +24970,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>152.4401138318219</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>243.4433994582162</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25163,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>126.4919521192238</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25205,16 +25207,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>145.9927856228079</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25366,13 +25368,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>214.5414662356956</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>172.2573809594887</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>353.0223854144587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>126.9470448471886</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>137.872025946726</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>336.3649071132043</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>193.7813791304748</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>142.235404842364</v>
+        <v>142.2354048423645</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>89.49498218058295</v>
+        <v>58.67017993786769</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,13 +25918,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>109.7532162242325</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>105.283331899067</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>797102.1508983766</v>
+        <v>797102.1508983764</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>797102.1508983766</v>
+        <v>797102.1508983764</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>797102.1508983765</v>
+        <v>797102.1508983766</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>797102.1508983765</v>
+        <v>797102.1508983766</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>797102.1508983762</v>
+        <v>797102.1508983765</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>797102.1508983764</v>
+        <v>797102.1508983765</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>797102.1508983764</v>
+        <v>797102.1508983765</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>409196.5187651049</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="F2" t="n">
-        <v>409196.5187651049</v>
+        <v>409196.5187651047</v>
       </c>
       <c r="G2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651047</v>
       </c>
       <c r="H2" t="n">
         <v>409196.5187651049</v>
       </c>
       <c r="I2" t="n">
-        <v>409196.5187651047</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="J2" t="n">
         <v>409196.5187651048</v>
@@ -26341,19 +26343,19 @@
         <v>409196.5187651048</v>
       </c>
       <c r="L2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="M2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651047</v>
       </c>
       <c r="N2" t="n">
         <v>409196.5187651048</v>
       </c>
       <c r="O2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="P2" t="n">
-        <v>409196.5187651047</v>
+        <v>409196.5187651049</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>356083.2629995311</v>
+        <v>356083.2629995302</v>
       </c>
       <c r="D3" t="n">
-        <v>133886.7361862365</v>
+        <v>133886.7361862375</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>182072.9798171904</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>82790.56074253522</v>
+        <v>82790.56074253508</v>
       </c>
       <c r="L3" t="n">
-        <v>33250.48899822791</v>
+        <v>33250.48899822819</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341485</v>
+        <v>47552.2657934148</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>182435.2718021077</v>
+        <v>182435.2718021079</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
@@ -26470,7 +26472,7 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>82580.74337893915</v>
+        <v>82580.74337893909</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984473</v>
@@ -26509,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-433188.4894446023</v>
+        <v>-433188.4894446022</v>
       </c>
       <c r="C6" t="n">
-        <v>-128474.2162620083</v>
+        <v>-128474.2162620075</v>
       </c>
       <c r="D6" t="n">
-        <v>120645.3225945507</v>
+        <v>120645.3225945496</v>
       </c>
       <c r="E6" t="n">
-        <v>139387.1314943556</v>
+        <v>139387.1314943558</v>
       </c>
       <c r="F6" t="n">
-        <v>321460.1113115463</v>
+        <v>321460.1113115461</v>
       </c>
       <c r="G6" t="n">
         <v>321460.1113115461</v>
       </c>
       <c r="H6" t="n">
+        <v>321460.1113115463</v>
+      </c>
+      <c r="I6" t="n">
         <v>321460.1113115462</v>
-      </c>
-      <c r="I6" t="n">
-        <v>321460.1113115461</v>
       </c>
       <c r="J6" t="n">
         <v>272395.1665830016</v>
       </c>
       <c r="K6" t="n">
-        <v>238669.5505690109</v>
+        <v>238669.550569011</v>
       </c>
       <c r="L6" t="n">
-        <v>288209.6223133182</v>
+        <v>288209.6223133181</v>
       </c>
       <c r="M6" t="n">
         <v>273907.8455181313</v>
@@ -26558,10 +26560,10 @@
         <v>321460.1113115461</v>
       </c>
       <c r="O6" t="n">
-        <v>321460.1113115461</v>
+        <v>321460.1113115462</v>
       </c>
       <c r="P6" t="n">
-        <v>321460.1113115461</v>
+        <v>321460.1113115462</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>825.38274624953</v>
+        <v>825.3827462495293</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26790,19 +26792,19 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>509.207228794398</v>
+        <v>509.2072287943973</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
@@ -26811,25 +26813,25 @@
         <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26960,13 +26962,13 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>276.9128053366254</v>
+        <v>276.9128053366247</v>
       </c>
       <c r="D3" t="n">
-        <v>108.6821458680092</v>
+        <v>108.6821458680101</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27014,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>321.6816416280781</v>
+        <v>321.6816416280774</v>
       </c>
       <c r="D4" t="n">
-        <v>131.3776033056409</v>
+        <v>131.3776033056418</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>321.6816416280782</v>
+        <v>321.6816416280776</v>
       </c>
       <c r="L4" t="n">
-        <v>131.3776033056407</v>
+        <v>131.3776033056418</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27260,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>321.6816416280781</v>
+        <v>321.6816416280774</v>
       </c>
       <c r="L4" t="n">
-        <v>131.3776033056409</v>
+        <v>131.3776033056418</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,10 +27393,10 @@
         <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
-        <v>384.7619123176197</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399024</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>341.3951797660307</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,10 +27472,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>107.4425255113885</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27509,7 +27511,7 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27518,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715761</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>43.84599485686184</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27557,10 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>19.25466862917636</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378023</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
         <v>98.73949432713042</v>
       </c>
       <c r="V4" t="n">
-        <v>246.5643162378005</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>154.6059210298287</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>55.40071084238519</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>72.35768991171926</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>305.4930893518355</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>82.55400685770245</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.4083737866025</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.5707722909361</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0802031803995</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.568165595806</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>95.08928567761471</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>28.27158985086025</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,19 +27748,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.0088160174318</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>73.75225587544898</v>
+        <v>225.8245826357508</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>48.17054722049429</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27777,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.9939868380619</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>198.0779304212288</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>221.5860830227523</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2378441683352</v>
+        <v>93.16011357162861</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>209.6461572658097</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>146.6902751604662</v>
       </c>
       <c r="U8" t="n">
-        <v>67.62512490990079</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28017,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>159.3228207414769</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>80.85095794181385</v>
       </c>
     </row>
     <row r="11">
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.318121592962932</v>
+        <v>3.31812159296293</v>
       </c>
       <c r="H5" t="n">
-        <v>33.98171276393164</v>
+        <v>33.98171276393161</v>
       </c>
       <c r="I5" t="n">
-        <v>127.9218827127036</v>
+        <v>127.9218827127035</v>
       </c>
       <c r="J5" t="n">
-        <v>281.6214225507379</v>
+        <v>281.6214225507377</v>
       </c>
       <c r="K5" t="n">
-        <v>422.0775095808589</v>
+        <v>422.0775095808586</v>
       </c>
       <c r="L5" t="n">
-        <v>523.6244732814984</v>
+        <v>523.6244732814979</v>
       </c>
       <c r="M5" t="n">
-        <v>582.6331181603529</v>
+        <v>582.6331181603524</v>
       </c>
       <c r="N5" t="n">
-        <v>592.0607311363589</v>
+        <v>592.0607311363584</v>
       </c>
       <c r="O5" t="n">
-        <v>559.0661595463337</v>
+        <v>559.0661595463332</v>
       </c>
       <c r="P5" t="n">
-        <v>477.1500327200612</v>
+        <v>477.1500327200608</v>
       </c>
       <c r="Q5" t="n">
-        <v>358.3198031720761</v>
+        <v>358.3198031720758</v>
       </c>
       <c r="R5" t="n">
-        <v>208.431955513958</v>
+        <v>208.4319555139578</v>
       </c>
       <c r="S5" t="n">
-        <v>75.61169579964289</v>
+        <v>75.61169579964283</v>
       </c>
       <c r="T5" t="n">
-        <v>14.52507727319524</v>
+        <v>14.52507727319523</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2654497274370345</v>
+        <v>0.2654497274370343</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.775351567404649</v>
+        <v>1.775351567404648</v>
       </c>
       <c r="H6" t="n">
-        <v>17.14615855888175</v>
+        <v>17.14615855888173</v>
       </c>
       <c r="I6" t="n">
-        <v>61.12504300055483</v>
+        <v>61.12504300055478</v>
       </c>
       <c r="J6" t="n">
-        <v>167.7317899713314</v>
+        <v>167.7317899713313</v>
       </c>
       <c r="K6" t="n">
-        <v>286.6803449874429</v>
+        <v>286.6803449874427</v>
       </c>
       <c r="L6" t="n">
-        <v>385.4771023875754</v>
+        <v>385.477102387575</v>
       </c>
       <c r="M6" t="n">
-        <v>449.8335967059938</v>
+        <v>449.8335967059934</v>
       </c>
       <c r="N6" t="n">
-        <v>461.7393534891593</v>
+        <v>461.7393534891589</v>
       </c>
       <c r="O6" t="n">
-        <v>422.4013003377194</v>
+        <v>422.401300337719</v>
       </c>
       <c r="P6" t="n">
-        <v>339.0142830774721</v>
+        <v>339.0142830774718</v>
       </c>
       <c r="Q6" t="n">
-        <v>226.6220702532672</v>
+        <v>226.622070253267</v>
       </c>
       <c r="R6" t="n">
-        <v>110.2275297727203</v>
+        <v>110.2275297727202</v>
       </c>
       <c r="S6" t="n">
-        <v>32.97637670157318</v>
+        <v>32.97637670157315</v>
       </c>
       <c r="T6" t="n">
-        <v>7.15591267738979</v>
+        <v>7.155912677389785</v>
       </c>
       <c r="U6" t="n">
         <v>0.1167994452239901</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.488395116187677</v>
+        <v>1.488395116187676</v>
       </c>
       <c r="H7" t="n">
-        <v>13.23318566937772</v>
+        <v>13.23318566937771</v>
       </c>
       <c r="I7" t="n">
-        <v>44.76010040317124</v>
+        <v>44.76010040317121</v>
       </c>
       <c r="J7" t="n">
-        <v>105.2295347144688</v>
+        <v>105.2295347144687</v>
       </c>
       <c r="K7" t="n">
-        <v>172.9244507716228</v>
+        <v>172.9244507716226</v>
       </c>
       <c r="L7" t="n">
-        <v>221.2837611830298</v>
+        <v>221.2837611830296</v>
       </c>
       <c r="M7" t="n">
-        <v>233.3126998947646</v>
+        <v>233.3126998947644</v>
       </c>
       <c r="N7" t="n">
-        <v>227.7650453707926</v>
+        <v>227.7650453707924</v>
       </c>
       <c r="O7" t="n">
-        <v>210.3778842407819</v>
+        <v>210.3778842407817</v>
       </c>
       <c r="P7" t="n">
-        <v>180.0146238705531</v>
+        <v>180.014623870553</v>
       </c>
       <c r="Q7" t="n">
-        <v>124.632794683679</v>
+        <v>124.6327946836789</v>
       </c>
       <c r="R7" t="n">
-        <v>66.92365676967498</v>
+        <v>66.92365676967492</v>
       </c>
       <c r="S7" t="n">
-        <v>25.93866761574341</v>
+        <v>25.93866761574339</v>
       </c>
       <c r="T7" t="n">
-        <v>6.359506405529163</v>
+        <v>6.359506405529157</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08118518815569156</v>
+        <v>0.08118518815569149</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,34 +31515,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31549,13 +31551,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31628,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32020,7 +32022,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563564</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
         <v>99.83230779806951</v>
@@ -32330,7 +32332,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
@@ -32476,7 +32478,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M20" t="n">
         <v>769.2673490574995</v>
@@ -32555,7 +32557,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32807,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33269,7 +33271,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33892,7 +33894,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953992</v>
       </c>
       <c r="K38" t="n">
         <v>557.281137600381</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34229,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,10 +34444,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34454,28 +34456,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>28.45844197068213</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
@@ -34869,10 +34871,10 @@
         <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>98.86065188594064</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>100.5755180240516</v>
+        <v>100.5755180240514</v>
       </c>
       <c r="K5" t="n">
-        <v>201.9876585358784</v>
+        <v>201.987658535878</v>
       </c>
       <c r="L5" t="n">
-        <v>287.8580583115111</v>
+        <v>287.8580583115107</v>
       </c>
       <c r="M5" t="n">
-        <v>352.2868849330802</v>
+        <v>352.2868849330797</v>
       </c>
       <c r="N5" t="n">
-        <v>362.647667539768</v>
+        <v>362.6476675397675</v>
       </c>
       <c r="O5" t="n">
-        <v>328.9679481246469</v>
+        <v>328.9679481246465</v>
       </c>
       <c r="P5" t="n">
-        <v>245.9170369647916</v>
+        <v>245.9170369647913</v>
       </c>
       <c r="Q5" t="n">
-        <v>136.0141132976266</v>
+        <v>136.0141132976263</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.89416330466472</v>
+        <v>166.9851986450734</v>
       </c>
       <c r="K6" t="n">
-        <v>413.3041430256625</v>
+        <v>148.8389060130837</v>
       </c>
       <c r="L6" t="n">
-        <v>246.9227226077012</v>
+        <v>246.9227226077008</v>
       </c>
       <c r="M6" t="n">
-        <v>307.6995627839755</v>
+        <v>307.6995627839751</v>
       </c>
       <c r="N6" t="n">
-        <v>330.397641405826</v>
+        <v>330.3976414058255</v>
       </c>
       <c r="O6" t="n">
-        <v>279.8050558932749</v>
+        <v>279.8050558932746</v>
       </c>
       <c r="P6" t="n">
-        <v>300.5216049229263</v>
+        <v>228.818518859246</v>
       </c>
       <c r="Q6" t="n">
-        <v>86.64029616724568</v>
+        <v>296.7175839030946</v>
       </c>
       <c r="R6" t="n">
-        <v>10.06969562007716</v>
+        <v>10.06969562007707</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.87035459779598</v>
+        <v>11.87035459779588</v>
       </c>
       <c r="K7" t="n">
-        <v>150.6549589457399</v>
+        <v>150.6549589457398</v>
       </c>
       <c r="L7" t="n">
-        <v>248.8737864433459</v>
+        <v>248.8737864433457</v>
       </c>
       <c r="M7" t="n">
-        <v>272.8965768566052</v>
+        <v>272.896576856605</v>
       </c>
       <c r="N7" t="n">
-        <v>271.8972177500211</v>
+        <v>271.897217750021</v>
       </c>
       <c r="O7" t="n">
-        <v>234.9630121548216</v>
+        <v>234.9630121548214</v>
       </c>
       <c r="P7" t="n">
-        <v>177.2931831354466</v>
+        <v>177.2931831354465</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.47075143198464</v>
+        <v>38.47075143198454</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>490.1260733652765</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35978,7 +35980,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36124,7 +36126,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36203,7 +36205,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36455,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,7 +36919,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38102,19 +38104,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_21_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_21_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1204001.580257495</v>
+        <v>1221619.030121573</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673257</v>
+        <v>4171427.157673259</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>153.8072380324131</v>
       </c>
       <c r="F2" t="n">
-        <v>43.98786165864735</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>92.64733914034905</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>63.15312727816823</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>105.8538318215781</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>93.50003930525044</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>15.137651257284</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9846159221721</v>
+        <v>11.98461592217212</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>82.55400685770248</v>
+        <v>31.16463690194315</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.5707722909361</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0802031803995</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>36.68294867595202</v>
+        <v>135.568165595806</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>95.08928567761471</v>
       </c>
       <c r="I6" t="n">
-        <v>28.27158985086031</v>
+        <v>28.27158985086024</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>138.7067944022646</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.0088160174318</v>
       </c>
       <c r="U6" t="n">
         <v>225.8245826357508</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>118.5661551130464</v>
       </c>
     </row>
     <row r="7">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0320534558146278</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5025842422711</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.9939868380619</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>110.6903745240871</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>110.3697346074945</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>198.0779304212288</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>57.21553108753924</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>51.12839504521797</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>275.9534072065837</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>108.5156050399342</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172153</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>343.1341133978104</v>
       </c>
       <c r="F11" t="n">
-        <v>289.3265275022441</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>88.95727408547495</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>198.3813615059023</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>168.1161921880586</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>279.7227642121158</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.26879610204049</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>19.18789823326437</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>369.7161377651441</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>205.636445568971</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>24.11662654221006</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2022,7 +2022,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>224.8436481720248</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2089,10 +2089,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>402.586193399941</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>80.05671066664441</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>183.0172251110635</v>
       </c>
       <c r="T22" t="n">
-        <v>203.4068132192036</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>267.3172025050113</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>210.0946544764315</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>143.2558443416327</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>77.31354443380503</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>158.5596236696501</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>227.6636901231406</v>
       </c>
     </row>
     <row r="27">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>84.69473660442914</v>
+        <v>25.01141625626413</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2797,10 +2797,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>209.6931219609846</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>204.7363363507823</v>
       </c>
     </row>
     <row r="30">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>6.380068175848605</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>140.8682042557708</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,16 +3037,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>146.5990350281167</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>120.6088074159628</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0.7368957119608427</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>72.69618390906979</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3274,13 +3274,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>377.744994620181</v>
+        <v>385.6774429869483</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>129.1542741108588</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>58.40943379163184</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3483,16 +3483,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>234.8865272280675</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>142.0975176632409</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>152.8817293601591</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>56.97285057263428</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>168.1158122680984</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>174.5639451167782</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.69557803892773</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>73.57457550998076</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>89.84455270551086</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>17.35112070699533</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>266.6551338124543</v>
       </c>
       <c r="V46" t="n">
-        <v>201.1340264327393</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388.8228542207805</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="C2" t="n">
-        <v>388.8228542207805</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="D2" t="n">
-        <v>388.8228542207805</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="E2" t="n">
-        <v>388.8228542207805</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="F2" t="n">
-        <v>344.3906707271973</v>
+        <v>393.841617006275</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513811</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201472</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372653</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="T2" t="n">
-        <v>388.8228542207805</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="U2" t="n">
-        <v>388.8228542207805</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="V2" t="n">
-        <v>388.8228542207805</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="W2" t="n">
-        <v>388.8228542207805</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="X2" t="n">
-        <v>388.8228542207805</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.8228542207805</v>
+        <v>738.6222485201467</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>750.1023486652798</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="C3" t="n">
-        <v>656.5191778164424</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="D3" t="n">
-        <v>507.5847681551912</v>
+        <v>384.5650976065915</v>
       </c>
       <c r="E3" t="n">
-        <v>348.3473131497357</v>
+        <v>225.327642601136</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8127551766207</v>
+        <v>78.79308462802098</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
         <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546602</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652798</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652798</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652798</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652798</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="X3" t="n">
-        <v>750.1023486652798</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.1023486652798</v>
+        <v>533.4995072678428</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>612.5614882768594</v>
+        <v>652.2810138379095</v>
       </c>
       <c r="C4" t="n">
-        <v>443.6253053489526</v>
+        <v>652.2810138379095</v>
       </c>
       <c r="D4" t="n">
-        <v>293.5086659366168</v>
+        <v>502.1643744255738</v>
       </c>
       <c r="E4" t="n">
-        <v>145.5955723542237</v>
+        <v>354.2512808431807</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818521</v>
+        <v>207.3613333452703</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818521</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818521</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
         <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745585</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692152</v>
+        <v>465.2530182692151</v>
       </c>
       <c r="N4" t="n">
-        <v>633.0454302264754</v>
+        <v>587.3641452287293</v>
       </c>
       <c r="O4" t="n">
-        <v>634.372383960802</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846275</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768594</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="S4" t="n">
-        <v>612.5614882768594</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="T4" t="n">
-        <v>612.5614882768594</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="U4" t="n">
-        <v>612.5614882768594</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="V4" t="n">
-        <v>612.5614882768594</v>
+        <v>652.2810138379095</v>
       </c>
       <c r="W4" t="n">
-        <v>612.5614882768594</v>
+        <v>652.2810138379095</v>
       </c>
       <c r="X4" t="n">
-        <v>612.5614882768594</v>
+        <v>652.2810138379095</v>
       </c>
       <c r="Y4" t="n">
-        <v>612.5614882768594</v>
+        <v>652.2810138379095</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>555.5610975330048</v>
+        <v>91.26718291549804</v>
       </c>
       <c r="C5" t="n">
-        <v>555.5610975330048</v>
+        <v>91.26718291549804</v>
       </c>
       <c r="D5" t="n">
-        <v>555.5610975330048</v>
+        <v>91.26718291549804</v>
       </c>
       <c r="E5" t="n">
-        <v>555.5610975330048</v>
+        <v>91.26718291549804</v>
       </c>
       <c r="F5" t="n">
-        <v>540.2705407074654</v>
+        <v>84.32168216629456</v>
       </c>
       <c r="G5" t="n">
-        <v>124.1244640184028</v>
+        <v>72.21600951763585</v>
       </c>
       <c r="H5" t="n">
-        <v>124.1244640184028</v>
+        <v>72.21600951763585</v>
       </c>
       <c r="I5" t="n">
-        <v>40.73657830355177</v>
+        <v>40.73657830355186</v>
       </c>
       <c r="J5" t="n">
-        <v>140.3063411473627</v>
+        <v>140.3063411473631</v>
       </c>
       <c r="K5" t="n">
-        <v>340.2741230978818</v>
+        <v>340.2741230978828</v>
       </c>
       <c r="L5" t="n">
-        <v>625.2536008262773</v>
+        <v>625.2536008262782</v>
       </c>
       <c r="M5" t="n">
-        <v>974.0176169100259</v>
+        <v>974.0176169100275</v>
       </c>
       <c r="N5" t="n">
-        <v>1333.038807774396</v>
+        <v>1333.038807774398</v>
       </c>
       <c r="O5" t="n">
-        <v>1658.717076417796</v>
+        <v>1658.717076417799</v>
       </c>
       <c r="P5" t="n">
-        <v>1902.174943012939</v>
+        <v>1902.174943012943</v>
       </c>
       <c r="Q5" t="n">
-        <v>2036.828915177589</v>
+        <v>2036.828915177593</v>
       </c>
       <c r="R5" t="n">
-        <v>2036.828915177589</v>
+        <v>2036.828915177593</v>
       </c>
       <c r="S5" t="n">
-        <v>2036.828915177589</v>
+        <v>2036.828915177593</v>
       </c>
       <c r="T5" t="n">
-        <v>2036.828915177589</v>
+        <v>1826.151367408971</v>
       </c>
       <c r="U5" t="n">
-        <v>2036.828915177589</v>
+        <v>1572.535000560082</v>
       </c>
       <c r="V5" t="n">
-        <v>1705.766027834018</v>
+        <v>1241.472113216511</v>
       </c>
       <c r="W5" t="n">
-        <v>1705.766027834018</v>
+        <v>1241.472113216511</v>
       </c>
       <c r="X5" t="n">
-        <v>1332.300269572938</v>
+        <v>868.0063549554316</v>
       </c>
       <c r="Y5" t="n">
-        <v>942.1609375971266</v>
+        <v>477.8670229796198</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>735.5066752010787</v>
+        <v>931.4405162086229</v>
       </c>
       <c r="C6" t="n">
-        <v>561.0536459199517</v>
+        <v>756.9874869274959</v>
       </c>
       <c r="D6" t="n">
-        <v>412.1192362587004</v>
+        <v>608.0530772662446</v>
       </c>
       <c r="E6" t="n">
-        <v>252.8817812532449</v>
+        <v>448.815622260789</v>
       </c>
       <c r="F6" t="n">
-        <v>106.3472232801299</v>
+        <v>302.281064287674</v>
       </c>
       <c r="G6" t="n">
-        <v>69.29373976906724</v>
+        <v>165.3435232818094</v>
       </c>
       <c r="H6" t="n">
-        <v>69.29373976906724</v>
+        <v>69.29373976906726</v>
       </c>
       <c r="I6" t="n">
-        <v>40.73657830355177</v>
+        <v>40.73657830355186</v>
       </c>
       <c r="J6" t="n">
-        <v>206.0519249621744</v>
+        <v>206.0519249621747</v>
       </c>
       <c r="K6" t="n">
-        <v>376.9432986792704</v>
+        <v>353.4024419151278</v>
       </c>
       <c r="L6" t="n">
-        <v>621.3967940608942</v>
+        <v>597.855937296752</v>
       </c>
       <c r="M6" t="n">
-        <v>926.0193612170294</v>
+        <v>902.4785044528878</v>
       </c>
       <c r="N6" t="n">
-        <v>1253.113026208797</v>
+        <v>1229.572169444656</v>
       </c>
       <c r="O6" t="n">
-        <v>1530.120031543139</v>
+        <v>1506.579174778998</v>
       </c>
       <c r="P6" t="n">
-        <v>1733.109508449649</v>
+        <v>1733.109508449653</v>
       </c>
       <c r="Q6" t="n">
-        <v>2026.859916513712</v>
+        <v>2026.859916513717</v>
       </c>
       <c r="R6" t="n">
-        <v>2036.828915177589</v>
+        <v>2036.828915177593</v>
       </c>
       <c r="S6" t="n">
-        <v>2036.828915177589</v>
+        <v>1896.721042043992</v>
       </c>
       <c r="T6" t="n">
-        <v>2036.828915177589</v>
+        <v>1701.762642026385</v>
       </c>
       <c r="U6" t="n">
-        <v>1808.723276151578</v>
+        <v>1473.657003000374</v>
       </c>
       <c r="V6" t="n">
-        <v>1573.571167919835</v>
+        <v>1473.657003000374</v>
       </c>
       <c r="W6" t="n">
-        <v>1319.333811191633</v>
+        <v>1219.419646272172</v>
       </c>
       <c r="X6" t="n">
-        <v>1111.482310986101</v>
+        <v>1219.419646272172</v>
       </c>
       <c r="Y6" t="n">
-        <v>903.7220122211468</v>
+        <v>1099.655853228691</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>916.1805002711756</v>
+        <v>654.592441724098</v>
       </c>
       <c r="C7" t="n">
-        <v>916.14812304308</v>
+        <v>485.6562587961911</v>
       </c>
       <c r="D7" t="n">
-        <v>766.0314836307442</v>
+        <v>335.5396193838553</v>
       </c>
       <c r="E7" t="n">
-        <v>618.1183900483511</v>
+        <v>187.6265258014622</v>
       </c>
       <c r="F7" t="n">
-        <v>471.2284425504407</v>
+        <v>40.73657830355186</v>
       </c>
       <c r="G7" t="n">
-        <v>303.0440140228941</v>
+        <v>40.73657830355186</v>
       </c>
       <c r="H7" t="n">
-        <v>152.5450374187913</v>
+        <v>40.73657830355186</v>
       </c>
       <c r="I7" t="n">
-        <v>40.73657830355177</v>
+        <v>40.73657830355186</v>
       </c>
       <c r="J7" t="n">
-        <v>52.48822935536968</v>
+        <v>52.48822935536991</v>
       </c>
       <c r="K7" t="n">
-        <v>201.636638711652</v>
+        <v>201.6366387116525</v>
       </c>
       <c r="L7" t="n">
-        <v>448.0216872905643</v>
+        <v>448.021687290565</v>
       </c>
       <c r="M7" t="n">
-        <v>718.1892983786031</v>
+        <v>718.1892983786042</v>
       </c>
       <c r="N7" t="n">
-        <v>987.3675439511237</v>
+        <v>987.3675439511253</v>
       </c>
       <c r="O7" t="n">
-        <v>1219.980925984397</v>
+        <v>1219.980925984399</v>
       </c>
       <c r="P7" t="n">
-        <v>1395.501177288489</v>
+        <v>1395.501177288491</v>
       </c>
       <c r="Q7" t="n">
-        <v>1433.587221206154</v>
+        <v>1433.587221206156</v>
       </c>
       <c r="R7" t="n">
-        <v>1433.587221206154</v>
+        <v>1322.102640794545</v>
       </c>
       <c r="S7" t="n">
-        <v>1433.587221206154</v>
+        <v>1122.023923197344</v>
       </c>
       <c r="T7" t="n">
-        <v>1433.587221206154</v>
+        <v>1064.230457452355</v>
       </c>
       <c r="U7" t="n">
-        <v>1433.587221206154</v>
+        <v>1064.230457452355</v>
       </c>
       <c r="V7" t="n">
-        <v>1433.587221206154</v>
+        <v>1064.230457452355</v>
       </c>
       <c r="W7" t="n">
-        <v>1144.170051169193</v>
+        <v>1064.230457452355</v>
       </c>
       <c r="X7" t="n">
-        <v>916.1805002711756</v>
+        <v>836.2409065543377</v>
       </c>
       <c r="Y7" t="n">
-        <v>916.1805002711756</v>
+        <v>836.2409065543377</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1977.695380320764</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="C8" t="n">
-        <v>1926.050536840746</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="D8" t="n">
-        <v>1567.784838233996</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>740.9735067177962</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>329.9876019281887</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
         <v>51.24678656800311</v>
@@ -4804,25 +4804,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>1977.695380320764</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X8" t="n">
-        <v>1977.695380320764</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.695380320764</v>
+        <v>1126.761759316041</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4886,25 +4886,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605189</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919907</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4922,10 +4922,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4962,25 +4962,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,22 +4989,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1526.834397811937</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1303.855917006673</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y10" t="n">
         <v>1014.73757951051</v>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1517.887535471216</v>
+        <v>1639.433183287319</v>
       </c>
       <c r="C11" t="n">
-        <v>1517.887535471216</v>
+        <v>1639.433183287319</v>
       </c>
       <c r="D11" t="n">
-        <v>1159.621836864466</v>
+        <v>1281.167484680569</v>
       </c>
       <c r="E11" t="n">
-        <v>773.8335842662214</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5056,10 +5056,10 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052369</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066532</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W11" t="n">
-        <v>2277.953133796418</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X11" t="n">
-        <v>1904.487375535338</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y11" t="n">
-        <v>1904.487375535338</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
@@ -5120,46 +5120,46 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>361.3151575124869</v>
+        <v>567.613649430832</v>
       </c>
       <c r="C13" t="n">
-        <v>361.3151575124869</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D13" t="n">
-        <v>361.3151575124869</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E13" t="n">
-        <v>213.4020639300938</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218343</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1326.59460854119</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1071.910120335303</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>782.4929502983425</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X13" t="n">
-        <v>582.107736656017</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="Y13" t="n">
-        <v>361.3151575124869</v>
+        <v>749.2621142610717</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1689.318139675982</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C14" t="n">
-        <v>1320.35562273557</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5299,7 +5299,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V14" t="n">
-        <v>3009.337405520489</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W14" t="n">
-        <v>2839.523069976995</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X14" t="n">
-        <v>2466.057311715915</v>
+        <v>2395.726271498012</v>
       </c>
       <c r="Y14" t="n">
-        <v>2075.917979740103</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.4020639300938</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C16" t="n">
-        <v>213.4020639300938</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D16" t="n">
-        <v>213.4020639300938</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E16" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484846</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610489</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046023</v>
+        <v>1686.146217270883</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676417</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="X16" t="n">
-        <v>452.6479724696244</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y16" t="n">
-        <v>231.8553933260943</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1636.624422581789</v>
+        <v>1921.870414581994</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.624422581789</v>
+        <v>1921.870414581994</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>1563.604715975244</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>481.584566587187</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218345</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912087</v>
@@ -5527,40 +5527,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609172</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>2994.542934265602</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W17" t="n">
-        <v>2786.829352882803</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="X17" t="n">
-        <v>2413.363594621723</v>
+        <v>2698.609586621928</v>
       </c>
       <c r="Y17" t="n">
-        <v>2023.224262645911</v>
+        <v>2308.470254646116</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="19">
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>844.1713638478171</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="C19" t="n">
-        <v>675.2351809199102</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2351809199102</v>
+        <v>502.1180458517765</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3220873375171</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F19" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1735.60866391532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1508.493867781961</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.809379576074</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W19" t="n">
-        <v>1253.809379576074</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X19" t="n">
-        <v>1025.819828678057</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y19" t="n">
-        <v>1025.819828678057</v>
+        <v>652.2346852641123</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1628.178203944122</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C20" t="n">
-        <v>1259.21568700371</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D20" t="n">
-        <v>900.94998839696</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E20" t="n">
-        <v>515.1617357987157</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5767,37 +5767,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609172</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U20" t="n">
-        <v>3072.075344883009</v>
+        <v>3038.762709683652</v>
       </c>
       <c r="V20" t="n">
-        <v>2741.012457539438</v>
+        <v>2707.699822340081</v>
       </c>
       <c r="W20" t="n">
-        <v>2388.243802269324</v>
+        <v>2354.931167069967</v>
       </c>
       <c r="X20" t="n">
-        <v>2014.778044008244</v>
+        <v>1981.465408808887</v>
       </c>
       <c r="Y20" t="n">
-        <v>2014.778044008244</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218345</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218345</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218345</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5937,25 +5937,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.60866391532</v>
+        <v>1742.428664137924</v>
       </c>
       <c r="T22" t="n">
-        <v>1530.147236421175</v>
+        <v>1742.428664137924</v>
       </c>
       <c r="U22" t="n">
-        <v>1241.044369546818</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="V22" t="n">
-        <v>986.3598813409312</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W22" t="n">
-        <v>696.9427113039706</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X22" t="n">
-        <v>468.9531604059532</v>
+        <v>935.9190763285891</v>
       </c>
       <c r="Y22" t="n">
-        <v>248.1605812624231</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.569348694474</v>
+        <v>2217.803762225667</v>
       </c>
       <c r="C23" t="n">
-        <v>1491.569348694474</v>
+        <v>1848.841245285255</v>
       </c>
       <c r="D23" t="n">
-        <v>1133.303650087724</v>
+        <v>1490.575546678505</v>
       </c>
       <c r="E23" t="n">
-        <v>747.5153974894793</v>
+        <v>1104.787294080261</v>
       </c>
       <c r="F23" t="n">
-        <v>336.5294926998717</v>
+        <v>693.8013892906531</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218345</v>
+        <v>278.7289391356496</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>2994.542934265602</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W23" t="n">
-        <v>2641.774278995487</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.308520734407</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.169188758596</v>
+        <v>2604.403602289789</v>
       </c>
     </row>
     <row r="24">
@@ -6059,34 +6059,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.0546934046023</v>
+        <v>463.6594280995018</v>
       </c>
       <c r="C25" t="n">
-        <v>825.351820332246</v>
+        <v>294.723245171595</v>
       </c>
       <c r="D25" t="n">
-        <v>675.2351809199102</v>
+        <v>144.6066057592592</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3220873375171</v>
+        <v>144.6066057592592</v>
       </c>
       <c r="F25" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G25" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1513.842048484846</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U25" t="n">
-        <v>1224.739181610489</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V25" t="n">
-        <v>970.0546934046023</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W25" t="n">
-        <v>970.0546934046023</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X25" t="n">
-        <v>970.0546934046023</v>
+        <v>866.1004720732717</v>
       </c>
       <c r="Y25" t="n">
-        <v>970.0546934046023</v>
+        <v>645.3078929297416</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1320.35562273557</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C26" t="n">
-        <v>1320.35562273557</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6244,34 +6244,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410104</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V26" t="n">
-        <v>2630.721789066533</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W26" t="n">
-        <v>2470.560553036583</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X26" t="n">
-        <v>2097.094794775503</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y26" t="n">
-        <v>1706.955462799692</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="27">
@@ -6296,34 +6296,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.51211643218345</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218345</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1751.913851851648</v>
+        <v>1902.030491263984</v>
       </c>
       <c r="T28" t="n">
-        <v>1530.147236421175</v>
+        <v>1680.26387583351</v>
       </c>
       <c r="U28" t="n">
-        <v>1241.044369546818</v>
+        <v>1391.161008959154</v>
       </c>
       <c r="V28" t="n">
-        <v>986.3598813409312</v>
+        <v>1136.476520753267</v>
       </c>
       <c r="W28" t="n">
-        <v>696.9427113039706</v>
+        <v>847.0593507163063</v>
       </c>
       <c r="X28" t="n">
-        <v>468.9531604059532</v>
+        <v>619.069799818289</v>
       </c>
       <c r="Y28" t="n">
-        <v>248.1605812624231</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1859.132475219475</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C29" t="n">
-        <v>1490.169958279064</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D29" t="n">
-        <v>1490.169958279064</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.381705680819</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F29" t="n">
-        <v>693.3958008912118</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>278.3233507362083</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J29" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6475,40 +6475,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U29" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V29" t="n">
-        <v>3009.337405520489</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="W29" t="n">
-        <v>3009.337405520489</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="X29" t="n">
-        <v>2635.871647259409</v>
+        <v>2510.786507531617</v>
       </c>
       <c r="Y29" t="n">
-        <v>2245.732315283597</v>
+        <v>2303.982127379311</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031481</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>825.3518203322459</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C31" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E31" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1920.850034779555</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1920.850034779555</v>
       </c>
       <c r="T31" t="n">
-        <v>1705.527932658019</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="U31" t="n">
-        <v>1416.425065783663</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V31" t="n">
-        <v>1274.133950373793</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W31" t="n">
-        <v>1274.133950373793</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X31" t="n">
-        <v>1046.144399475776</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y31" t="n">
-        <v>825.3518203322459</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.878520285691</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C32" t="n">
-        <v>1398.916003345279</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D32" t="n">
-        <v>1040.650304738529</v>
+        <v>863.2862738200353</v>
       </c>
       <c r="E32" t="n">
-        <v>1040.650304738529</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F32" t="n">
-        <v>629.6643999489211</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G32" t="n">
-        <v>214.5919497939175</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H32" t="n">
         <v>66.51211643218345</v>
@@ -6715,7 +6715,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
         <v>3018.302393296688</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136267</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136267</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136267</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="V32" t="n">
-        <v>2884.252265792697</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W32" t="n">
-        <v>2531.483610522582</v>
+        <v>2740.719419668211</v>
       </c>
       <c r="X32" t="n">
-        <v>2158.017852261502</v>
+        <v>2367.253661407131</v>
       </c>
       <c r="Y32" t="n">
-        <v>1767.878520285691</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>678.6720730524787</v>
+        <v>530.9956795433845</v>
       </c>
       <c r="C34" t="n">
-        <v>509.7358901245718</v>
+        <v>362.0594966154777</v>
       </c>
       <c r="D34" t="n">
-        <v>359.6192507122361</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E34" t="n">
-        <v>359.6192507122361</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G34" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H34" t="n">
         <v>66.51211643218345</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1853.864059291453</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1632.097443860979</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1342.994576986623</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V34" t="n">
-        <v>1088.310088780736</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W34" t="n">
-        <v>1088.310088780736</v>
+        <v>1161.426274415172</v>
       </c>
       <c r="X34" t="n">
-        <v>860.3205378827184</v>
+        <v>933.4367235171544</v>
       </c>
       <c r="Y34" t="n">
-        <v>860.3205378827184</v>
+        <v>712.6441443736243</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1175.300932605791</v>
+        <v>1569.101759311881</v>
       </c>
       <c r="C35" t="n">
-        <v>806.3384156653794</v>
+        <v>1200.139242371469</v>
       </c>
       <c r="D35" t="n">
-        <v>448.0727170586289</v>
+        <v>841.873543764719</v>
       </c>
       <c r="E35" t="n">
-        <v>448.0727170586289</v>
+        <v>456.0852911664747</v>
       </c>
       <c r="F35" t="n">
-        <v>448.0727170586289</v>
+        <v>456.0852911664747</v>
       </c>
       <c r="G35" t="n">
         <v>66.51211643218345</v>
@@ -6964,25 +6964,25 @@
         <v>3325.605821609172</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U35" t="n">
-        <v>3009.337405520489</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V35" t="n">
-        <v>2678.274518176919</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="W35" t="n">
-        <v>2325.505862906804</v>
+        <v>2719.306689612894</v>
       </c>
       <c r="X35" t="n">
-        <v>1952.040104645725</v>
+        <v>2345.840931351815</v>
       </c>
       <c r="Y35" t="n">
-        <v>1561.900772669913</v>
+        <v>1955.701599376003</v>
       </c>
     </row>
     <row r="36">
@@ -7019,16 +7019,16 @@
         <v>160.1893859228009</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>776.4603107317583</v>
+        <v>423.5412774992677</v>
       </c>
       <c r="C37" t="n">
-        <v>776.4603107317583</v>
+        <v>423.5412774992677</v>
       </c>
       <c r="D37" t="n">
-        <v>626.3436713194226</v>
+        <v>273.424638086932</v>
       </c>
       <c r="E37" t="n">
-        <v>478.4305777370295</v>
+        <v>125.5115445045388</v>
       </c>
       <c r="F37" t="n">
-        <v>331.5406302391191</v>
+        <v>125.5115445045388</v>
       </c>
       <c r="G37" t="n">
-        <v>163.8377936138381</v>
+        <v>125.5115445045388</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218345</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>1134.908724368017</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="V37" t="n">
-        <v>1134.908724368017</v>
+        <v>1161.740577577776</v>
       </c>
       <c r="W37" t="n">
-        <v>1134.908724368017</v>
+        <v>872.3234075408152</v>
       </c>
       <c r="X37" t="n">
-        <v>906.9191734699996</v>
+        <v>644.3338566427979</v>
       </c>
       <c r="Y37" t="n">
-        <v>906.9191734699996</v>
+        <v>423.5412774992677</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1590.514489367197</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="C38" t="n">
-        <v>1221.551972426786</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2862738200353</v>
+        <v>1100.545392232225</v>
       </c>
       <c r="E38" t="n">
-        <v>477.498021221791</v>
+        <v>714.7571396339804</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218345</v>
+        <v>303.7712348443728</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3071.782307011782</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V38" t="n">
-        <v>2740.719419668211</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W38" t="n">
-        <v>2740.719419668211</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X38" t="n">
-        <v>2367.253661407131</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y38" t="n">
-        <v>1977.114329431319</v>
+        <v>1845.410930903097</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031481</v>
@@ -7271,7 +7271,7 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>979.777809584932</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C40" t="n">
-        <v>825.351820332246</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D40" t="n">
-        <v>675.2351809199102</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3220873375171</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F40" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1869.746214176741</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>1678.060330003568</v>
       </c>
       <c r="T40" t="n">
-        <v>1705.527932658019</v>
+        <v>1678.060330003568</v>
       </c>
       <c r="U40" t="n">
-        <v>1705.527932658019</v>
+        <v>1388.957463129211</v>
       </c>
       <c r="V40" t="n">
-        <v>1450.843444452132</v>
+        <v>1134.272974923324</v>
       </c>
       <c r="W40" t="n">
-        <v>1161.426274415172</v>
+        <v>844.8558048863637</v>
       </c>
       <c r="X40" t="n">
-        <v>1161.426274415172</v>
+        <v>616.8662539883463</v>
       </c>
       <c r="Y40" t="n">
-        <v>1161.426274415172</v>
+        <v>396.0736748448163</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2175.400891308159</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C41" t="n">
-        <v>1806.438374367747</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D41" t="n">
-        <v>1448.172675760997</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.384423162752</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F41" t="n">
-        <v>651.398518373145</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>236.3260682181414</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218345</v>
@@ -7411,25 +7411,25 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.58875505237</v>
@@ -7441,22 +7441,22 @@
         <v>3325.605821609172</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609172</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609172</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609172</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="W41" t="n">
-        <v>3325.605821609172</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="X41" t="n">
-        <v>2952.140063348093</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="Y41" t="n">
-        <v>2562.000731372281</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="42">
@@ -7508,7 +7508,7 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>994.2880032601529</v>
+        <v>477.468889025756</v>
       </c>
       <c r="C43" t="n">
-        <v>825.351820332246</v>
+        <v>308.5327060978491</v>
       </c>
       <c r="D43" t="n">
-        <v>675.2351809199102</v>
+        <v>308.5327060978491</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3220873375171</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F43" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218345</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V43" t="n">
-        <v>1450.843444452132</v>
+        <v>1169.327103036487</v>
       </c>
       <c r="W43" t="n">
-        <v>1450.843444452132</v>
+        <v>879.9099329995258</v>
       </c>
       <c r="X43" t="n">
-        <v>1222.853893554115</v>
+        <v>879.9099329995258</v>
       </c>
       <c r="Y43" t="n">
-        <v>1002.061314410585</v>
+        <v>659.1173538559957</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2047.583838282732</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C44" t="n">
-        <v>1678.62132134232</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3234.853748169262</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3028.876000553484</v>
       </c>
       <c r="U44" t="n">
-        <v>3215.315153136266</v>
+        <v>3028.876000553484</v>
       </c>
       <c r="V44" t="n">
-        <v>3215.315153136266</v>
+        <v>2697.813113209913</v>
       </c>
       <c r="W44" t="n">
-        <v>3197.788768583745</v>
+        <v>2697.813113209913</v>
       </c>
       <c r="X44" t="n">
-        <v>2824.323010322666</v>
+        <v>2324.347354948834</v>
       </c>
       <c r="Y44" t="n">
-        <v>2434.183678346854</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="45">
@@ -7718,31 +7718,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
         <v>2407.411984886741</v>
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>793.5839474470786</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C46" t="n">
-        <v>624.6477645191717</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D46" t="n">
-        <v>624.6477645191717</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484846</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610489</v>
+        <v>1436.179312645439</v>
       </c>
       <c r="V46" t="n">
-        <v>1021.573498345096</v>
+        <v>1181.494824439552</v>
       </c>
       <c r="W46" t="n">
-        <v>1021.573498345096</v>
+        <v>1181.494824439552</v>
       </c>
       <c r="X46" t="n">
-        <v>793.5839474470786</v>
+        <v>953.5052735415344</v>
       </c>
       <c r="Y46" t="n">
-        <v>793.5839474470786</v>
+        <v>732.7126943980043</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8145,16 +8145,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457084</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>145.8220995101051</v>
+        <v>99.67938739116971</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>7.153582300174349</v>
+        <v>7.153582300174094</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>23.77864319610421</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>23.77864319610552</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>168.7434581780648</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111057</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,10 +23266,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>38.7962566744514</v>
       </c>
       <c r="F11" t="n">
-        <v>117.5495182394674</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>78.28954701315288</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>27.32829388313488</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>181.1247765293544</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>90.00833646635323</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>161.5631840798968</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>232.9497450905636</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>12.21423230711764</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,13 +23788,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>143.604523148442</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>122.3173361043591</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>61.36819003358812</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23977,10 +23977,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>4.289852341770484</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -23989,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>170.9384612922576</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>6.751800220378357</v>
       </c>
       <c r="T22" t="n">
-        <v>16.14213605696563</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>143.6045231484421</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>84.513109910889</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292592</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>23.99097675699511</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>68.10750358912621</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24414,10 +24414,10 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>190.6813450477629</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>158.574248532913</v>
       </c>
     </row>
     <row r="27">
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S28" t="n">
-        <v>105.0742887270128</v>
+        <v>164.7576090751778</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24685,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>84.91464242633586</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292592</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>181.5016023052713</v>
       </c>
     </row>
     <row r="30">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004732</v>
+        <v>82.55208449419871</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>111.2694390680572</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>148.0087293592037</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292592</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>83.30916272365734</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>147.8785773062515</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25125,25 +25125,25 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S34" t="n">
-        <v>117.0728414223721</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25162,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>33.17673103327246</v>
+        <v>25.24428266650511</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.67770607107849</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>86.34558112268894</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>176.035198425386</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25447,13 +25447,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>108.8976542956611</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>14.36509173846869</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004732</v>
+        <v>31.95930209741304</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>126.4919521192221</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292592</v>
@@ -25681,10 +25681,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>195.1671555616908</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>172.1364021430096</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>72.85938713658841</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>19.34320908266497</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>331.8898480104177</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>19.55670439315861</v>
       </c>
       <c r="V46" t="n">
-        <v>51.00361689108871</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>797102.1508983765</v>
+        <v>797102.1508983764</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>797102.1508983765</v>
+        <v>797102.1508983764</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>797102.1508983766</v>
+        <v>797102.1508983765</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>797102.1508983766</v>
+        <v>797102.1508983765</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>797102.1508983767</v>
+        <v>797102.1508983766</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>797102.1508983765</v>
+        <v>797102.1508983766</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
+        <v>409196.5187651049</v>
+      </c>
+      <c r="F2" t="n">
         <v>409196.5187651048</v>
-      </c>
-      <c r="F2" t="n">
-        <v>409196.518765105</v>
       </c>
       <c r="G2" t="n">
         <v>409196.5187651049</v>
       </c>
       <c r="H2" t="n">
+        <v>409196.5187651048</v>
+      </c>
+      <c r="I2" t="n">
+        <v>409196.5187651048</v>
+      </c>
+      <c r="J2" t="n">
+        <v>409196.5187651048</v>
+      </c>
+      <c r="K2" t="n">
         <v>409196.518765105</v>
       </c>
-      <c r="I2" t="n">
-        <v>409196.5187651049</v>
-      </c>
-      <c r="J2" t="n">
-        <v>409196.5187651049</v>
-      </c>
-      <c r="K2" t="n">
-        <v>409196.5187651049</v>
-      </c>
       <c r="L2" t="n">
-        <v>409196.5187651049</v>
+        <v>409196.518765105</v>
       </c>
       <c r="M2" t="n">
         <v>409196.5187651049</v>
       </c>
       <c r="N2" t="n">
+        <v>409196.5187651049</v>
+      </c>
+      <c r="O2" t="n">
+        <v>409196.5187651051</v>
+      </c>
+      <c r="P2" t="n">
         <v>409196.518765105</v>
-      </c>
-      <c r="O2" t="n">
-        <v>409196.5187651049</v>
-      </c>
-      <c r="P2" t="n">
-        <v>409196.5187651048</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>356083.26299953</v>
+        <v>356083.2629995315</v>
       </c>
       <c r="D3" t="n">
-        <v>133886.7361862375</v>
+        <v>133886.7361862361</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>182072.9798171908</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
-        <v>82790.56074253492</v>
+        <v>82790.56074253534</v>
       </c>
       <c r="L3" t="n">
-        <v>33250.48899822822</v>
+        <v>33250.48899822788</v>
       </c>
       <c r="M3" t="n">
         <v>47552.26579341491</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307131</v>
+        <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>182435.2718021079</v>
+        <v>182435.2718021076</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
@@ -26469,34 +26469,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>82580.74337893908</v>
+        <v>82580.74337893917</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="G5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="H5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="I5" t="n">
         <v>74306.34056139331</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.34056139333</v>
-      </c>
-      <c r="H5" t="n">
-        <v>74306.34056139333</v>
-      </c>
-      <c r="I5" t="n">
-        <v>74306.34056139333</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.34056139333</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.34056139331</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139333</v>
@@ -26505,7 +26505,7 @@
         <v>74306.34056139333</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="O5" t="n">
         <v>74306.34056139333</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-433188.4894446022</v>
+        <v>-433188.4894446023</v>
       </c>
       <c r="C6" t="n">
-        <v>-128474.2162620073</v>
+        <v>-128474.2162620086</v>
       </c>
       <c r="D6" t="n">
-        <v>120645.3225945496</v>
+        <v>120645.322594551</v>
       </c>
       <c r="E6" t="n">
-        <v>135910.9421962946</v>
+        <v>139039.5125645494</v>
       </c>
       <c r="F6" t="n">
-        <v>317983.9220134851</v>
+        <v>321112.4923817401</v>
       </c>
       <c r="G6" t="n">
-        <v>317983.9220134852</v>
+        <v>321112.4923817401</v>
       </c>
       <c r="H6" t="n">
-        <v>317983.9220134852</v>
+        <v>321112.49238174</v>
       </c>
       <c r="I6" t="n">
-        <v>317983.9220134852</v>
+        <v>321112.4923817399</v>
       </c>
       <c r="J6" t="n">
-        <v>268918.9772849405</v>
+        <v>272047.5476531954</v>
       </c>
       <c r="K6" t="n">
-        <v>235193.3612709503</v>
+        <v>238321.9316392049</v>
       </c>
       <c r="L6" t="n">
-        <v>284733.433015257</v>
+        <v>287862.0033835123</v>
       </c>
       <c r="M6" t="n">
-        <v>270431.6562200703</v>
+        <v>273560.2265883253</v>
       </c>
       <c r="N6" t="n">
-        <v>317983.9220134852</v>
+        <v>321112.4923817401</v>
       </c>
       <c r="O6" t="n">
-        <v>317983.9220134852</v>
+        <v>321112.4923817403</v>
       </c>
       <c r="P6" t="n">
-        <v>317983.9220134851</v>
+        <v>321112.4923817402</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>825.3827462495292</v>
+        <v>825.3827462495302</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593299</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>509.2072287943972</v>
+        <v>509.2072287943982</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26801,22 +26801,22 @@
         <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022931</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022931</v>
@@ -26825,13 +26825,13 @@
         <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022931</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>276.9128053366245</v>
+        <v>276.9128053366256</v>
       </c>
       <c r="D3" t="n">
-        <v>108.6821458680101</v>
+        <v>108.6821458680089</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>321.6816416280772</v>
+        <v>321.6816416280784</v>
       </c>
       <c r="D4" t="n">
-        <v>131.3776033056417</v>
+        <v>131.3776033056405</v>
       </c>
       <c r="E4" t="n">
         <v>190.816623302254</v>
@@ -27038,10 +27038,10 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>321.681641628077</v>
+        <v>321.6816416280786</v>
       </c>
       <c r="L4" t="n">
-        <v>131.3776033056419</v>
+        <v>131.3776033056405</v>
       </c>
       <c r="M4" t="n">
         <v>190.816623302254</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>321.6816416280772</v>
+        <v>321.6816416280784</v>
       </c>
       <c r="L4" t="n">
-        <v>131.3776033056417</v>
+        <v>131.3776033056405</v>
       </c>
       <c r="M4" t="n">
         <v>190.816623302254</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>228.1231320398487</v>
       </c>
       <c r="F2" t="n">
-        <v>362.8881840830641</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399023</v>
+        <v>129.3682389399024</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988682</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>80.06115984796669</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>73.0106620876071</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.88401062568137</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>39.56721620135315</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27596,7 +27596,7 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>158.6376040185776</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>391.7383944844274</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>305.4930893518355</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>51.38936995575915</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.4083737866025</v>
+        <v>133.4083737866024</v>
       </c>
       <c r="T5" t="n">
-        <v>208.5707722909361</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0802031803995</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27709,10 +27709,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>98.88521691985397</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>95.08928567761473</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>138.7067944022647</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.0088160174318</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>87.11654066425798</v>
       </c>
     </row>
     <row r="7">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2147676428132</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5025842422711</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.9939868380619</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>110.690374524087</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>110.3697346074946</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>198.0779304212289</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.5860830227523</v>
+        <v>164.3705519352131</v>
       </c>
       <c r="U7" t="n">
         <v>286.2378441683352</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>314.1444967257896</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>135.5942955663703</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28061,25 +28061,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>86.14685532180324</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193757</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31044,13 +31044,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31062,25 +31062,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31126,7 +31126,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,16 +31135,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31153,16 +31153,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31229,19 +31229,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.318121592962929</v>
+        <v>3.318121592962933</v>
       </c>
       <c r="H5" t="n">
-        <v>33.9817127639316</v>
+        <v>33.98171276393165</v>
       </c>
       <c r="I5" t="n">
-        <v>127.9218827127034</v>
+        <v>127.9218827127036</v>
       </c>
       <c r="J5" t="n">
-        <v>281.6214225507376</v>
+        <v>281.621422550738</v>
       </c>
       <c r="K5" t="n">
-        <v>422.0775095808585</v>
+        <v>422.077509580859</v>
       </c>
       <c r="L5" t="n">
-        <v>523.6244732814979</v>
+        <v>523.6244732814985</v>
       </c>
       <c r="M5" t="n">
-        <v>582.6331181603523</v>
+        <v>582.633118160353</v>
       </c>
       <c r="N5" t="n">
-        <v>592.0607311363583</v>
+        <v>592.060731136359</v>
       </c>
       <c r="O5" t="n">
-        <v>559.0661595463331</v>
+        <v>559.0661595463338</v>
       </c>
       <c r="P5" t="n">
-        <v>477.1500327200607</v>
+        <v>477.1500327200613</v>
       </c>
       <c r="Q5" t="n">
-        <v>358.3198031720758</v>
+        <v>358.3198031720762</v>
       </c>
       <c r="R5" t="n">
-        <v>208.4319555139578</v>
+        <v>208.431955513958</v>
       </c>
       <c r="S5" t="n">
-        <v>75.61169579964282</v>
+        <v>75.61169579964292</v>
       </c>
       <c r="T5" t="n">
-        <v>14.52507727319523</v>
+        <v>14.52507727319525</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2654497274370343</v>
+        <v>0.2654497274370346</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.775351567404648</v>
+        <v>1.77535156740465</v>
       </c>
       <c r="H6" t="n">
-        <v>17.14615855888173</v>
+        <v>17.14615855888175</v>
       </c>
       <c r="I6" t="n">
-        <v>61.12504300055477</v>
+        <v>61.12504300055484</v>
       </c>
       <c r="J6" t="n">
-        <v>167.7317899713312</v>
+        <v>167.7317899713314</v>
       </c>
       <c r="K6" t="n">
-        <v>286.6803449874427</v>
+        <v>286.680344987443</v>
       </c>
       <c r="L6" t="n">
-        <v>385.477102387575</v>
+        <v>385.4771023875754</v>
       </c>
       <c r="M6" t="n">
-        <v>449.8335967059933</v>
+        <v>449.8335967059939</v>
       </c>
       <c r="N6" t="n">
-        <v>461.7393534891588</v>
+        <v>461.7393534891594</v>
       </c>
       <c r="O6" t="n">
-        <v>422.401300337719</v>
+        <v>422.4013003377195</v>
       </c>
       <c r="P6" t="n">
-        <v>339.0142830774718</v>
+        <v>339.0142830774722</v>
       </c>
       <c r="Q6" t="n">
-        <v>226.622070253267</v>
+        <v>226.6220702532673</v>
       </c>
       <c r="R6" t="n">
-        <v>110.2275297727202</v>
+        <v>110.2275297727203</v>
       </c>
       <c r="S6" t="n">
-        <v>32.97637670157315</v>
+        <v>32.97637670157319</v>
       </c>
       <c r="T6" t="n">
-        <v>7.155912677389783</v>
+        <v>7.155912677389792</v>
       </c>
       <c r="U6" t="n">
-        <v>0.11679944522399</v>
+        <v>0.1167994452239902</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.488395116187675</v>
+        <v>1.488395116187677</v>
       </c>
       <c r="H7" t="n">
-        <v>13.23318566937771</v>
+        <v>13.23318566937772</v>
       </c>
       <c r="I7" t="n">
-        <v>44.7601004031712</v>
+        <v>44.76010040317125</v>
       </c>
       <c r="J7" t="n">
-        <v>105.2295347144686</v>
+        <v>105.2295347144688</v>
       </c>
       <c r="K7" t="n">
-        <v>172.9244507716226</v>
+        <v>172.9244507716228</v>
       </c>
       <c r="L7" t="n">
-        <v>221.2837611830295</v>
+        <v>221.2837611830298</v>
       </c>
       <c r="M7" t="n">
-        <v>233.3126998947644</v>
+        <v>233.3126998947647</v>
       </c>
       <c r="N7" t="n">
-        <v>227.7650453707923</v>
+        <v>227.7650453707926</v>
       </c>
       <c r="O7" t="n">
-        <v>210.3778842407817</v>
+        <v>210.377884240782</v>
       </c>
       <c r="P7" t="n">
-        <v>180.014623870553</v>
+        <v>180.0146238705532</v>
       </c>
       <c r="Q7" t="n">
-        <v>124.6327946836789</v>
+        <v>124.6327946836791</v>
       </c>
       <c r="R7" t="n">
-        <v>66.92365676967492</v>
+        <v>66.92365676967501</v>
       </c>
       <c r="S7" t="n">
-        <v>25.93866761574339</v>
+        <v>25.93866761574342</v>
       </c>
       <c r="T7" t="n">
-        <v>6.359506405529157</v>
+        <v>6.359506405529165</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08118518815569148</v>
+        <v>0.08118518815569158</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970241</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953992</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32794,7 +32794,7 @@
         <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233476</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905542</v>
@@ -33031,7 +33031,7 @@
         <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233476</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002928</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905542</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138797</v>
@@ -33751,7 +33751,7 @@
         <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970241</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002928</v>
@@ -33991,10 +33991,10 @@
         <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905542</v>
@@ -34228,10 +34228,10 @@
         <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905542</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062402</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4872848053134</v>
+        <v>123.344572686378</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469473</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>100.5755180240513</v>
+        <v>100.5755180240517</v>
       </c>
       <c r="K5" t="n">
-        <v>201.987658535878</v>
+        <v>201.9876585358785</v>
       </c>
       <c r="L5" t="n">
-        <v>287.8580583115107</v>
+        <v>287.8580583115112</v>
       </c>
       <c r="M5" t="n">
-        <v>352.2868849330796</v>
+        <v>352.2868849330803</v>
       </c>
       <c r="N5" t="n">
-        <v>362.6476675397674</v>
+        <v>362.6476675397681</v>
       </c>
       <c r="O5" t="n">
-        <v>328.9679481246463</v>
+        <v>328.967948124647</v>
       </c>
       <c r="P5" t="n">
-        <v>245.9170369647912</v>
+        <v>245.9170369647918</v>
       </c>
       <c r="Q5" t="n">
-        <v>136.0141132976263</v>
+        <v>136.0141132976267</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>166.9851986450734</v>
+        <v>166.9851986450736</v>
       </c>
       <c r="K6" t="n">
-        <v>172.6175492091879</v>
+        <v>148.838906013084</v>
       </c>
       <c r="L6" t="n">
-        <v>246.9227226077008</v>
+        <v>246.9227226077012</v>
       </c>
       <c r="M6" t="n">
-        <v>307.699562783975</v>
+        <v>307.6995627839756</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3976414058255</v>
+        <v>330.3976414058261</v>
       </c>
       <c r="O6" t="n">
-        <v>279.8050558932745</v>
+        <v>279.805055893275</v>
       </c>
       <c r="P6" t="n">
-        <v>205.0398756631415</v>
+        <v>228.8185188592474</v>
       </c>
       <c r="Q6" t="n">
-        <v>296.7175839030946</v>
+        <v>296.7175839030948</v>
       </c>
       <c r="R6" t="n">
-        <v>10.06969562007706</v>
+        <v>10.0696956200772</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.87035459779587</v>
+        <v>11.87035459779601</v>
       </c>
       <c r="K7" t="n">
-        <v>150.6549589457398</v>
+        <v>150.65495894574</v>
       </c>
       <c r="L7" t="n">
-        <v>248.8737864433457</v>
+        <v>248.8737864433459</v>
       </c>
       <c r="M7" t="n">
-        <v>272.896576856605</v>
+        <v>272.8965768566053</v>
       </c>
       <c r="N7" t="n">
-        <v>271.8972177500209</v>
+        <v>271.8972177500212</v>
       </c>
       <c r="O7" t="n">
-        <v>234.9630121548214</v>
+        <v>234.9630121548216</v>
       </c>
       <c r="P7" t="n">
-        <v>177.2931831354464</v>
+        <v>177.2931831354467</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.47075143198452</v>
+        <v>38.47075143198467</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>535.6747904601052</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419603</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127261</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525797</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340047</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013293</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340047</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013293</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340056</v>
@@ -37399,7 +37399,7 @@
         <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525797</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859626</v>
@@ -37639,10 +37639,10 @@
         <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
